--- a/src/main/resources/examples/干洗店.xlsx
+++ b/src/main/resources/examples/干洗店.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22215"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{018B1887-3397-4EC6-AF79-ABBBDB7980FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A62D4CFE-4F9E-43C3-9742-2ECB6EE435B5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,49 +20,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+  <si>
+    <t>干洗剂消耗量（kg）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SCC编码
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县</t>
-  </si>
-  <si>
-    <t>区县编码</t>
-  </si>
-  <si>
-    <t>干洗店名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>干洗剂消耗量（kg）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年排放量（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ-SCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPA-SCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县代码</t>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业经度</t>
+  </si>
+  <si>
+    <t>企业纬度</t>
+  </si>
+  <si>
+    <t>71890209-7　</t>
+  </si>
+  <si>
+    <t>乌鲁木齐市米东区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06553658-6　</t>
+  </si>
+  <si>
+    <t>新疆昌吉州呼图壁县工业园区大风化工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2（吨） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一家干洗店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二家干洗店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三家干洗店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,32 +149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -117,37 +173,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,109 +502,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="11.546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.94921875" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.94921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
+        <v>1430000090</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="2">
+        <v>650109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43.980694</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>343123</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4">
-        <v>1430000000</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2420020000</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>1430000090</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="2">
+        <v>652323</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>86.611249000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44.299512</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2218.98</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4">
-        <v>1430000010</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2420020055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4">
-        <v>1430000020</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2420020370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
         <v>1430000090</v>
       </c>
-      <c r="J5" s="5">
-        <v>2425000999</v>
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="2">
+        <v>650109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>87.700934000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43.980694</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2866385</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/examples/干洗店.xlsx
+++ b/src/main/resources/examples/干洗店.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22607"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{018B1887-3397-4EC6-AF79-ABBBDB7980FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A62D4CFE-4F9E-43C3-9742-2ECB6EE435B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B6A755-0922-414E-9E83-520CA2860260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="干洗店" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -506,7 +507,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -595,7 +596,7 @@
         <v>2015</v>
       </c>
       <c r="C2" s="2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -651,10 +652,10 @@
         <v>1430000090</v>
       </c>
       <c r="B3" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3" s="2">
-        <v>652323</v>
+        <v>210102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -710,10 +711,10 @@
         <v>1430000090</v>
       </c>
       <c r="B4" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C4" s="2">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -769,4 +770,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB9F7A9-BF7E-44F5-9DFF-85F9469A95AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>